--- a/biology/Médecine/Ernst_Moro/Ernst_Moro.xlsx
+++ b/biology/Médecine/Ernst_Moro/Ernst_Moro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Moro (8 décembre 1874 - 17 avril 1951) est médecin et pédiatre autrichien, découvreur dans la médecine occidental du réflexe archaïque qui porte maintenant son nom (réflexe de Moro).
 Moro a étudié la médecine à Graz, en Autriche, il obtient son titre de Docteur en médecine 1899. De 1901 à 1902 il travaille à Vienne avec Theodor Escherich, le découvreur de la bactérie Escherichia coli. Il est habilité à pratiquer la pédiatrie à Munich en 1906 et devient professeur en pédiatrie à l'Université de Heidelberg en 1911.
@@ -522,11 +534,13 @@
           <t>La soupe de carotte du professeur Moro</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1908, la diarrhée tuait beaucoup de bébés en Allemagne. Le professeur Moro, à la tête d'un hôpital pour enfants à Heidelberg, découvre  par expérience qu'une simple soupe de carottes a diminué le taux de mortalité des bébés souffrant de diarrhée par près de 50 %[réf. nécessaire]. La soupe est faite en mixant 500 grammes de carotte pelées avec 1 litre d'eau (non, on mixe lorsque les carottes sont longuement cuites, se renseigner plus précisément) puis en la cuisant pendant une heure. Après la cuisson, trois grammes de sel sont ajoutés ainsi que de l'eau pour obtenir un litre de soupe.
-Une étude allemande publiée en 2002[1] précise que les acides oligosaccharides formés dans les extraits aqueux de carottes (soupe de carotte) peut réduire l'adhérence bactérienne aux muqueuses de la paroi de l'intestin et ainsi être un traitement plus efficace contre les infections gastro-intestinales aiguës chez l'enfant qu'une réhydratation orale par solution électrolytique de glucose.
-En 2009 des expériences ont montré que la soupe de carotte du professeur Moro peut traiter la diarrhée causée par des bactéries résistantes aux antibiotiques[2]. (Recette efficace chez le chien. Possibilité de congeler la purée en petites doses, dans un bac à glaçon, par exemple.)
+Une étude allemande publiée en 2002 précise que les acides oligosaccharides formés dans les extraits aqueux de carottes (soupe de carotte) peut réduire l'adhérence bactérienne aux muqueuses de la paroi de l'intestin et ainsi être un traitement plus efficace contre les infections gastro-intestinales aiguës chez l'enfant qu'une réhydratation orale par solution électrolytique de glucose.
+En 2009 des expériences ont montré que la soupe de carotte du professeur Moro peut traiter la diarrhée causée par des bactéries résistantes aux antibiotiques. (Recette efficace chez le chien. Possibilité de congeler la purée en petites doses, dans un bac à glaçon, par exemple.)
 </t>
         </is>
       </c>
@@ -555,7 +569,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Moro est né à Laibach, Duché de Carniole, Autriche-Hongrie, aujourd'hui Ljubljana en Slovénie.
 Moro a été marié à Margareta Hönigswald. Son fils, Pierre Moro, a été architecte à Londres.
